--- a/data/trans_orig/P2C_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>160982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139381</v>
+        <v>137894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180740</v>
+        <v>179467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3397860232497487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2941916620895928</v>
+        <v>0.2910528843911513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.381488181833796</v>
+        <v>0.3788009349601384</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -765,19 +765,19 @@
         <v>112320</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95840</v>
+        <v>94383</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>131095</v>
+        <v>128653</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3662442631892747</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.312507201715577</v>
+        <v>0.3077562241753082</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4274665458032468</v>
+        <v>0.4195032872787905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>263</v>
@@ -786,19 +786,19 @@
         <v>273303</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243992</v>
+        <v>247910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>303377</v>
+        <v>301325</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3501827844355591</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3126264804505042</v>
+        <v>0.317646820271503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3887166883810513</v>
+        <v>0.3860881173299489</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>312794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>293036</v>
+        <v>294309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334395</v>
+        <v>335882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6602139767502513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6185118181662042</v>
+        <v>0.6211990650398617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7058083379104072</v>
+        <v>0.7089471156088487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -836,19 +836,19 @@
         <v>194360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>175585</v>
+        <v>178027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>210840</v>
+        <v>212297</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6337557368107254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5725334541967532</v>
+        <v>0.5804967127212094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.687492798284423</v>
+        <v>0.6922437758246917</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>490</v>
@@ -857,19 +857,19 @@
         <v>507154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477080</v>
+        <v>479132</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>536465</v>
+        <v>532547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6498172155644408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6112833116189487</v>
+        <v>0.6139118826700511</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6873735195494957</v>
+        <v>0.682353179728497</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>107916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91766</v>
+        <v>90531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126717</v>
+        <v>125588</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2941014398399812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.250087493605855</v>
+        <v>0.2467218199133927</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3453400402977336</v>
+        <v>0.3422634414172621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>145</v>
@@ -982,19 +982,19 @@
         <v>149474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130699</v>
+        <v>131231</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>167827</v>
+        <v>168997</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.401958624559973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3514685174973818</v>
+        <v>0.3528988934703827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4513123667857388</v>
+        <v>0.4544590253667571</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>246</v>
@@ -1003,19 +1003,19 @@
         <v>257390</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>232516</v>
+        <v>231859</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>283754</v>
+        <v>285176</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.348389950246003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3147222518489607</v>
+        <v>0.3138327324426671</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3840743276424213</v>
+        <v>0.3859987644156903</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>259018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>240217</v>
+        <v>241346</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275168</v>
+        <v>276403</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7058985601600188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6546599597022663</v>
+        <v>0.6577365585827374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7499125063941449</v>
+        <v>0.7532781800866071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>218</v>
@@ -1053,19 +1053,19 @@
         <v>222391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>204038</v>
+        <v>202868</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>241166</v>
+        <v>240634</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.598041375440027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.548687633214261</v>
+        <v>0.5455409746332428</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6485314825026182</v>
+        <v>0.6471011065296173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>467</v>
@@ -1074,19 +1074,19 @@
         <v>481409</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>455045</v>
+        <v>453623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>506283</v>
+        <v>506940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6516100497539971</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6159256723575787</v>
+        <v>0.6140012355843099</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6852777481510393</v>
+        <v>0.686167267557333</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>168582</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148171</v>
+        <v>148812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189009</v>
+        <v>191161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3108145502781386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2731813124568149</v>
+        <v>0.2743635110789723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3484747315041414</v>
+        <v>0.3524432204516266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1199,19 +1199,19 @@
         <v>76121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62943</v>
+        <v>62702</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88576</v>
+        <v>88984</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4536904850836441</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3751461370823085</v>
+        <v>0.3737082746803976</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.527920863849677</v>
+        <v>0.5303561022090161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -1220,19 +1220,19 @@
         <v>244703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>219369</v>
+        <v>217827</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>270808</v>
+        <v>269913</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3445697963074941</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3088960534254153</v>
+        <v>0.3067253015176326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3813281302822409</v>
+        <v>0.3800680687809073</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>373807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>353380</v>
+        <v>351228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>394218</v>
+        <v>393577</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6891854497218614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6515252684958586</v>
+        <v>0.6475567795483734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7268186875431851</v>
+        <v>0.7256364889210277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>92</v>
@@ -1270,19 +1270,19 @@
         <v>91661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79206</v>
+        <v>78798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>104839</v>
+        <v>105080</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5463095149163559</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4720791361503232</v>
+        <v>0.4696438977909836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6248538629176915</v>
+        <v>0.6262917253196023</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>460</v>
@@ -1291,19 +1291,19 @@
         <v>465468</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>439363</v>
+        <v>440258</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>490802</v>
+        <v>492344</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6554302036925059</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6186718697177591</v>
+        <v>0.6199319312190928</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6911039465745848</v>
+        <v>0.6932746984823679</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>362407</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>333946</v>
+        <v>328513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>395891</v>
+        <v>390008</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2926572399053484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2696736927147563</v>
+        <v>0.2652862915740868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3196961282402025</v>
+        <v>0.314945948836617</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>264</v>
@@ -1416,19 +1416,19 @@
         <v>274511</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>248090</v>
+        <v>247413</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301694</v>
+        <v>300542</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3843160988902947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3473258786417306</v>
+        <v>0.3463785125448874</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4223717178819234</v>
+        <v>0.4207598348131281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>621</v>
@@ -1437,19 +1437,19 @@
         <v>636919</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>597845</v>
+        <v>598612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>679779</v>
+        <v>683405</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3261868500633582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3061756791426767</v>
+        <v>0.3065685422115133</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3481368268347474</v>
+        <v>0.3499939666196153</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>875927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>842443</v>
+        <v>848326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>904388</v>
+        <v>909821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7073427600946516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6803038717597975</v>
+        <v>0.685054051163383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7303263072852437</v>
+        <v>0.7347137084259132</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -1487,19 +1487,19 @@
         <v>439774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>412591</v>
+        <v>413743</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>466195</v>
+        <v>466872</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6156839011097053</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5776282821180766</v>
+        <v>0.5792401651868719</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6526741213582694</v>
+        <v>0.6536214874551126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1297</v>
@@ -1508,19 +1508,19 @@
         <v>1315701</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1272841</v>
+        <v>1269215</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1354775</v>
+        <v>1354008</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6738131499366418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6518631731652524</v>
+        <v>0.6500060333803847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6938243208573234</v>
+        <v>0.6934314577884865</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>102986</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85790</v>
+        <v>88488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121700</v>
+        <v>121452</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2937804342438649</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2447248214317093</v>
+        <v>0.25242335901485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3471641360413456</v>
+        <v>0.3464550404622701</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>205</v>
@@ -1633,19 +1633,19 @@
         <v>215808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>191627</v>
+        <v>192591</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>237846</v>
+        <v>241814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3794406173635188</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3369248290819812</v>
+        <v>0.3386195878555475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4181893753583504</v>
+        <v>0.4251666837424603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>304</v>
@@ -1654,19 +1654,19 @@
         <v>318794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>291105</v>
+        <v>291447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>349999</v>
+        <v>348736</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3467762027736444</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3166571834135511</v>
+        <v>0.3170285841200212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3807206654931264</v>
+        <v>0.3793465561311897</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>247569</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>228855</v>
+        <v>229103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>264765</v>
+        <v>262067</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7062195657561351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6528358639586539</v>
+        <v>0.65354495953773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7552751785682906</v>
+        <v>0.74757664098515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>334</v>
@@ -1704,19 +1704,19 @@
         <v>352944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>330906</v>
+        <v>326938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>377125</v>
+        <v>376161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6205593826364811</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5818106246416497</v>
+        <v>0.5748333162575395</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6630751709180188</v>
+        <v>0.6613804121444525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>575</v>
@@ -1725,19 +1725,19 @@
         <v>600513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>569308</v>
+        <v>570571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>628202</v>
+        <v>627860</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6532237972263556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.619279334506873</v>
+        <v>0.6206534438688101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6833428165864487</v>
+        <v>0.6829714158799788</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>52559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40677</v>
+        <v>40755</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66677</v>
+        <v>65620</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1762519505762653</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1364086150471842</v>
+        <v>0.1366691532291157</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2235961708191663</v>
+        <v>0.2200545866909714</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>332</v>
@@ -1850,19 +1850,19 @@
         <v>337617</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>304109</v>
+        <v>304284</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>367491</v>
+        <v>369055</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2703614622693278</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2435287134735414</v>
+        <v>0.2436687178636193</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2942848371561393</v>
+        <v>0.2955368526094735</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>384</v>
@@ -1871,19 +1871,19 @@
         <v>390175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>356168</v>
+        <v>358698</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>422292</v>
+        <v>424239</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2522203977278843</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2302375377017074</v>
+        <v>0.2318730838107254</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2729815831615094</v>
+        <v>0.2742402394350135</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>245642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231524</v>
+        <v>232581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257524</v>
+        <v>257446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8237480494237347</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7764038291808337</v>
+        <v>0.7799454133090286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8635913849528157</v>
+        <v>0.8633308467708843</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>906</v>
@@ -1921,19 +1921,19 @@
         <v>911143</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>881269</v>
+        <v>879705</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>944651</v>
+        <v>944476</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7296385377306722</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7057151628438608</v>
+        <v>0.704463147390527</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7564712865264588</v>
+        <v>0.7563312821363807</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1160</v>
@@ -1942,19 +1942,19 @@
         <v>1156785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1124668</v>
+        <v>1122721</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1190792</v>
+        <v>1188262</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7477796022721156</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7270184168384906</v>
+        <v>0.7257597605649864</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7697624622982926</v>
+        <v>0.7681269161892746</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>955433</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>897497</v>
+        <v>905940</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1001736</v>
+        <v>1013050</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2921644197232466</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2744480677386261</v>
+        <v>0.2770298343292271</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3063235890622968</v>
+        <v>0.3097832877938825</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1126</v>
@@ -2067,19 +2067,19 @@
         <v>1165851</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1103534</v>
+        <v>1110207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1216282</v>
+        <v>1218899</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3451177826250637</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3266705915411741</v>
+        <v>0.3286461429244456</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3600465743489306</v>
+        <v>0.3608213695598475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2054</v>
@@ -2088,19 +2088,19 @@
         <v>2121284</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2042873</v>
+        <v>2037101</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2203325</v>
+        <v>2194144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3190709446963512</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3072768068800334</v>
+        <v>0.3064086218513393</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3314110526240821</v>
+        <v>0.3300301593972674</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2314757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2268454</v>
+        <v>2257140</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2372693</v>
+        <v>2364250</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7078355802767534</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.693676410937703</v>
+        <v>0.6902167122061175</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7255519322613738</v>
+        <v>0.722970165670773</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2170</v>
@@ -2138,19 +2138,19 @@
         <v>2212273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2161842</v>
+        <v>2159225</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2274590</v>
+        <v>2267917</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6548822173749362</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6399534256510694</v>
+        <v>0.6391786304401523</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6733294084588259</v>
+        <v>0.6713538570755543</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4449</v>
@@ -2159,19 +2159,19 @@
         <v>4527030</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4444989</v>
+        <v>4454170</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4605441</v>
+        <v>4611213</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6809290553036489</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.668588947375918</v>
+        <v>0.6699698406027326</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6927231931199671</v>
+        <v>0.6935913781486606</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>191590</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170312</v>
+        <v>172110</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213657</v>
+        <v>214725</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4382084527008411</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3895413571924206</v>
+        <v>0.3936532011291309</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4886819288110486</v>
+        <v>0.4911255069928272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -2526,19 +2526,19 @@
         <v>170699</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151996</v>
+        <v>152829</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>187746</v>
+        <v>189606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5428412850449631</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4833645395747417</v>
+        <v>0.4860145956935047</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5970539119820814</v>
+        <v>0.6029680413520585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>333</v>
@@ -2547,19 +2547,19 @@
         <v>362288</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>334009</v>
+        <v>334910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>392453</v>
+        <v>391521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4819809281911076</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4443592476170929</v>
+        <v>0.4455579586193956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5221113880316122</v>
+        <v>0.520871473094046</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>245621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223554</v>
+        <v>222486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266899</v>
+        <v>265101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5617915472991588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5113180711889515</v>
+        <v>0.5088744930071728</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6104586428075794</v>
+        <v>0.6063467988708691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -2597,19 +2597,19 @@
         <v>143755</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126708</v>
+        <v>124848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>162458</v>
+        <v>161625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4571587149550369</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4029460880179186</v>
+        <v>0.3970319586479415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5166354604252581</v>
+        <v>0.5139854043064953</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>354</v>
@@ -2618,19 +2618,19 @@
         <v>389377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>359212</v>
+        <v>360144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>417656</v>
+        <v>416755</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5180190718088924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4778886119683878</v>
+        <v>0.4791285269059539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5556407523829071</v>
+        <v>0.5544420413806045</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>191056</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>167393</v>
+        <v>170374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>212446</v>
+        <v>212511</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4562022600472055</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3996989784740708</v>
+        <v>0.4068182911215271</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5072769851743327</v>
+        <v>0.5074314514194346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>187</v>
@@ -2743,19 +2743,19 @@
         <v>209363</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187750</v>
+        <v>191081</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>227226</v>
+        <v>228459</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.619395650285839</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5554563583869354</v>
+        <v>0.5653106376070838</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6722448704227498</v>
+        <v>0.6758908233727426</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>362</v>
@@ -2764,19 +2764,19 @@
         <v>400419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373492</v>
+        <v>372083</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>432152</v>
+        <v>429723</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5290888746249144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4935098005204113</v>
+        <v>0.4916479514946785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5710189437754636</v>
+        <v>0.5678091628051848</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>227741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>206351</v>
+        <v>206286</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>251404</v>
+        <v>248423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5437977399527945</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4927230148256674</v>
+        <v>0.4925685485805655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6003010215259293</v>
+        <v>0.5931817088784729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>118</v>
@@ -2814,19 +2814,19 @@
         <v>128648</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>110785</v>
+        <v>109552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150261</v>
+        <v>146930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3806043497141611</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3277551295772501</v>
+        <v>0.3241091766272574</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4445436416130646</v>
+        <v>0.4346893623929163</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>318</v>
@@ -2835,19 +2835,19 @@
         <v>356389</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>324656</v>
+        <v>327085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>383316</v>
+        <v>384725</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4709111253750856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4289810562245364</v>
+        <v>0.4321908371948152</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5064901994795887</v>
+        <v>0.5083520485053219</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>285410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>262035</v>
+        <v>258510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>310234</v>
+        <v>311107</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4534535742915895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4163148173815513</v>
+        <v>0.4107154074082663</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4928924671236118</v>
+        <v>0.4942792081058123</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -2960,19 +2960,19 @@
         <v>128397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111727</v>
+        <v>111867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145304</v>
+        <v>143534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4935884050641898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.429506445418803</v>
+        <v>0.4300425170197164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5585858848149234</v>
+        <v>0.551778933308785</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -2981,19 +2981,19 @@
         <v>413807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>385570</v>
+        <v>383625</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>444478</v>
+        <v>444022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4651902030823837</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4334472504192752</v>
+        <v>0.4312600150424846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4996695767404362</v>
+        <v>0.4991563913142689</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>344005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319181</v>
+        <v>318308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>367380</v>
+        <v>370905</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5465464257084105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5071075328763883</v>
+        <v>0.5057207918941877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5836851826184487</v>
+        <v>0.5892845925917337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -3031,19 +3031,19 @@
         <v>131732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114825</v>
+        <v>116595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148402</v>
+        <v>148262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5064115949358101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4414141151850764</v>
+        <v>0.448221066691215</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5704935545811968</v>
+        <v>0.5699574829802837</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>443</v>
@@ -3052,19 +3052,19 @@
         <v>475737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>445066</v>
+        <v>445522</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>503974</v>
+        <v>505919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5348097969176163</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5003304232595639</v>
+        <v>0.5008436086857311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5665527495807248</v>
+        <v>0.5687399849575155</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>559629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>525709</v>
+        <v>525130</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>594623</v>
+        <v>593534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4828516069610452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4535851096486646</v>
+        <v>0.4530855374113502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5130439287406225</v>
+        <v>0.5121047256442869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>409</v>
@@ -3177,19 +3177,19 @@
         <v>436296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>409080</v>
+        <v>408564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>467781</v>
+        <v>464193</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5690884604740092</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5335895898046437</v>
+        <v>0.5329160067206736</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6101574093958892</v>
+        <v>0.6054773714801662</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>936</v>
@@ -3198,19 +3198,19 @@
         <v>995926</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>944230</v>
+        <v>952513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1036820</v>
+        <v>1043595</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5171847165415419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4903392297670009</v>
+        <v>0.4946407501622295</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5384213014623341</v>
+        <v>0.5419394314944026</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>599380</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>564386</v>
+        <v>565475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>633300</v>
+        <v>633879</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5171483930389548</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4869560712593774</v>
+        <v>0.487895274355713</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5464148903513354</v>
+        <v>0.5469144625886497</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>302</v>
@@ -3248,19 +3248,19 @@
         <v>330361</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>298876</v>
+        <v>302464</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>357577</v>
+        <v>358093</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4309115395259908</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3898425906041108</v>
+        <v>0.3945226285198337</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4664104101953564</v>
+        <v>0.4670839932793264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -3269,19 +3269,19 @@
         <v>929741</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>888847</v>
+        <v>882072</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>981437</v>
+        <v>973154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4828152834584581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.461578698537666</v>
+        <v>0.4580605685055975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5096607702329993</v>
+        <v>0.5053592498377706</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>222964</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>198099</v>
+        <v>199478</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>244323</v>
+        <v>245868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4366749212386973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3879759288263339</v>
+        <v>0.3906764299124291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4785062989547381</v>
+        <v>0.481530618601385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>393</v>
@@ -3394,19 +3394,19 @@
         <v>426682</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>401193</v>
+        <v>398942</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455559</v>
+        <v>454734</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5603012358321714</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5268307545253124</v>
+        <v>0.5238745185353076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5982214364614734</v>
+        <v>0.5971387838705214</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>607</v>
@@ -3415,19 +3415,19 @@
         <v>649646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>612802</v>
+        <v>613479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>687002</v>
+        <v>686260</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5106807310143729</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4817180608002022</v>
+        <v>0.4822502546419971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5400456197778417</v>
+        <v>0.5394626751353608</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>287632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>266273</v>
+        <v>264728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>312497</v>
+        <v>311118</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5633250787613028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5214937010452622</v>
+        <v>0.5184693813986151</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6120240711736662</v>
+        <v>0.6093235700875713</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>310</v>
@@ -3465,19 +3465,19 @@
         <v>334840</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>305963</v>
+        <v>306788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>360329</v>
+        <v>362580</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4396987641678285</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4017785635385265</v>
+        <v>0.4028612161294785</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4731692454746876</v>
+        <v>0.4761254814646922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>583</v>
@@ -3486,19 +3486,19 @@
         <v>622472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>585116</v>
+        <v>585858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>659316</v>
+        <v>658639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.489319268985627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4599543802221584</v>
+        <v>0.4605373248646391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5182819391997971</v>
+        <v>0.517749745358003</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>83937</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69010</v>
+        <v>69852</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99009</v>
+        <v>99183</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3145115004409069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2585780203616498</v>
+        <v>0.2617343039926988</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3709846425253661</v>
+        <v>0.3716369132450793</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>437</v>
@@ -3611,19 +3611,19 @@
         <v>460371</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>430639</v>
+        <v>428848</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>493421</v>
+        <v>495573</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4149911122759911</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3881902330302085</v>
+        <v>0.3865757092655598</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4447835013524476</v>
+        <v>0.4467234090415613</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>517</v>
@@ -3632,19 +3632,19 @@
         <v>544308</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>507141</v>
+        <v>503542</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>579640</v>
+        <v>584283</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3955059024269485</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3684995032618655</v>
+        <v>0.3658843514692861</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4211789830913212</v>
+        <v>0.4245521149806885</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>182945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167873</v>
+        <v>167699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197872</v>
+        <v>197030</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6854884995590931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6290153574746337</v>
+        <v>0.6283630867549199</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7414219796383501</v>
+        <v>0.7382656960073012</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>607</v>
@@ -3682,19 +3682,19 @@
         <v>648980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>615930</v>
+        <v>613778</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>678712</v>
+        <v>680503</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5850088877240089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5552164986475523</v>
+        <v>0.5532765909584386</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6118097669697915</v>
+        <v>0.6134242907344404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>792</v>
@@ -3703,19 +3703,19 @@
         <v>831925</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>796593</v>
+        <v>791950</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>869092</v>
+        <v>872691</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6044940975730515</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5788210169086787</v>
+        <v>0.5754478850193113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6315004967381345</v>
+        <v>0.6341156485307134</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1534587</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1468353</v>
+        <v>1471005</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1590955</v>
+        <v>1590068</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4484593320570192</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4291033692584633</v>
+        <v>0.4298783395857244</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4649317473987117</v>
+        <v>0.4646726078094119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1703</v>
@@ -3828,19 +3828,19 @@
         <v>1831806</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1763458</v>
+        <v>1770928</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1887923</v>
+        <v>1889362</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5159836551532886</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.496731251586753</v>
+        <v>0.4988353981121819</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5317904311190343</v>
+        <v>0.5321958938039103</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3147</v>
@@ -3849,19 +3849,19 @@
         <v>3366394</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3280421</v>
+        <v>3282000</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3454230</v>
+        <v>3461455</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4828423776951047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4705112338937807</v>
+        <v>0.4707376729724807</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4954406779653661</v>
+        <v>0.4964769269937678</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1887323</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1830955</v>
+        <v>1831842</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1953557</v>
+        <v>1950905</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5515406679429808</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5350682526012882</v>
+        <v>0.5353273921905881</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5708966307415367</v>
+        <v>0.5701216604142756</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1587</v>
@@ -3899,19 +3899,19 @@
         <v>1718319</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1662202</v>
+        <v>1660763</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1786667</v>
+        <v>1779197</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4840163448467114</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4682095688809657</v>
+        <v>0.4678041061960898</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.503268748413247</v>
+        <v>0.5011646018878182</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3348</v>
@@ -3920,19 +3920,19 @@
         <v>3605641</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3517805</v>
+        <v>3510580</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3691614</v>
+        <v>3690035</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5171576223048954</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5045593220346339</v>
+        <v>0.5035230730062324</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5294887661062193</v>
+        <v>0.5292623270275195</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>112362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94199</v>
+        <v>93238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132444</v>
+        <v>131816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2618605891937231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2195317026173189</v>
+        <v>0.2172920668294071</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3086619761557048</v>
+        <v>0.3071979361785739</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -4287,19 +4287,19 @@
         <v>149266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131289</v>
+        <v>130114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169172</v>
+        <v>167922</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4300923803836231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3782931684609618</v>
+        <v>0.3749079519300852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4874510456432991</v>
+        <v>0.483847912308632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>251</v>
@@ -4308,19 +4308,19 @@
         <v>261628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236480</v>
+        <v>235134</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292072</v>
+        <v>288471</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3370856107589937</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3046841077529164</v>
+        <v>0.3029498614806607</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3763107714798971</v>
+        <v>0.3716699401156214</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>316730</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296648</v>
+        <v>297276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334893</v>
+        <v>335854</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.738139410806277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6913380238442947</v>
+        <v>0.6928020638214257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7804682973826811</v>
+        <v>0.7827079331705927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -4358,19 +4358,19 @@
         <v>197789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177883</v>
+        <v>179133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>215766</v>
+        <v>216941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5699076196163769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5125489543567007</v>
+        <v>0.516152087691368</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6217068315390379</v>
+        <v>0.6250920480699148</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>477</v>
@@ -4379,19 +4379,19 @@
         <v>514519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>484075</v>
+        <v>487676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>539667</v>
+        <v>541013</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6629143892410063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6236892285201029</v>
+        <v>0.6283300598843786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6953158922470836</v>
+        <v>0.6970501385193393</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>143078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125271</v>
+        <v>126110</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162203</v>
+        <v>163927</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3792888239043548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3320849251069319</v>
+        <v>0.334307436253528</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.429986664728692</v>
+        <v>0.4345581041881669</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>176</v>
@@ -4504,19 +4504,19 @@
         <v>181054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>161876</v>
+        <v>162477</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>201334</v>
+        <v>202045</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4863462259786259</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4348323876458711</v>
+        <v>0.4364466602223538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5408234254881691</v>
+        <v>0.5427328444789798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>310</v>
@@ -4525,19 +4525,19 @@
         <v>324132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>295935</v>
+        <v>297226</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>349602</v>
+        <v>352402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.432463733807625</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3948427761273294</v>
+        <v>0.3965653535015254</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4664465943761018</v>
+        <v>0.4701829352210895</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>234149</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>215024</v>
+        <v>213300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>251956</v>
+        <v>251117</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6207111760956452</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.570013335271308</v>
+        <v>0.5654418958118331</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6679150748930681</v>
+        <v>0.665692563746472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>176</v>
@@ -4575,19 +4575,19 @@
         <v>191219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>170939</v>
+        <v>170228</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>210397</v>
+        <v>209796</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5136537740213741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.459176574511831</v>
+        <v>0.4572671555210202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5651676123541289</v>
+        <v>0.5635533397776462</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>396</v>
@@ -4596,19 +4596,19 @@
         <v>425368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>399898</v>
+        <v>397098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>453565</v>
+        <v>452274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5675362661923751</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5335534056238983</v>
+        <v>0.5298170647789104</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6051572238726706</v>
+        <v>0.6034346464984747</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>174068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152512</v>
+        <v>151532</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>195795</v>
+        <v>196645</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.333518807904901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2922164729540976</v>
+        <v>0.2903385051897591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3751481269537407</v>
+        <v>0.3767758329576881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -4721,19 +4721,19 @@
         <v>66629</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54136</v>
+        <v>53188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80488</v>
+        <v>80021</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.401082725720784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3258810321791977</v>
+        <v>0.3201730308031646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4845064065120984</v>
+        <v>0.4816992732817401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>229</v>
@@ -4742,19 +4742,19 @@
         <v>240697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>215956</v>
+        <v>215955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>266067</v>
+        <v>268725</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3498317616064117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3138733015232222</v>
+        <v>0.3138717619715858</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3867053300227563</v>
+        <v>0.3905682130195506</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>347846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326119</v>
+        <v>325269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>369402</v>
+        <v>370382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.666481192095099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6248518730462593</v>
+        <v>0.6232241670423119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7077835270459024</v>
+        <v>0.709661494810241</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -4792,19 +4792,19 @@
         <v>99494</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85635</v>
+        <v>86102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111987</v>
+        <v>112935</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.598917274279216</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5154935934879007</v>
+        <v>0.5183007267182594</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6741189678208022</v>
+        <v>0.6798269691968353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>426</v>
@@ -4813,19 +4813,19 @@
         <v>447339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>421969</v>
+        <v>419311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>472080</v>
+        <v>472081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6501682383935883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6132946699772437</v>
+        <v>0.6094317869804495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6861266984767777</v>
+        <v>0.6861282380284142</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>364146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>332620</v>
+        <v>332275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>396780</v>
+        <v>394423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3167485849581468</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.289326164398115</v>
+        <v>0.2890257268709021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3451343299446314</v>
+        <v>0.3430843864590912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>355</v>
@@ -4938,19 +4938,19 @@
         <v>359372</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>331312</v>
+        <v>332693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>389484</v>
+        <v>391328</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4351399249415562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4011644781453229</v>
+        <v>0.402837101743204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.471601108006812</v>
+        <v>0.473833415888765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>709</v>
@@ -4959,19 +4959,19 @@
         <v>723518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>682995</v>
+        <v>683493</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>768955</v>
+        <v>770602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3662428118714981</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3457300598913702</v>
+        <v>0.3459822830537323</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3892431089362047</v>
+        <v>0.3900767606124468</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>785492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>752858</v>
+        <v>755215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>817018</v>
+        <v>817363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6832514150418532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6548656700553686</v>
+        <v>0.6569156135409089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7106738356018849</v>
+        <v>0.710974273129098</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>443</v>
@@ -5009,19 +5009,19 @@
         <v>466504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436392</v>
+        <v>434548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>494564</v>
+        <v>493183</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5648600750584438</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5283988919931879</v>
+        <v>0.526166584111235</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5988355218546771</v>
+        <v>0.5971628982567959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1192</v>
@@ -5030,19 +5030,19 @@
         <v>1251996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1206559</v>
+        <v>1204912</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1292519</v>
+        <v>1292021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6337571881285019</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6107568910637956</v>
+        <v>0.6099232393875533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6542699401086298</v>
+        <v>0.6540177169462682</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>205333</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>182935</v>
+        <v>183278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>230246</v>
+        <v>231874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3308063075970443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.294720800393493</v>
+        <v>0.2952726474855977</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3709421759114908</v>
+        <v>0.3735653707722079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>290</v>
@@ -5155,19 +5155,19 @@
         <v>300014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>273047</v>
+        <v>274953</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329431</v>
+        <v>330759</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4063889330606018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3698603382415755</v>
+        <v>0.3724412738114591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4462356216819756</v>
+        <v>0.448034472049562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>485</v>
@@ -5176,19 +5176,19 @@
         <v>505348</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>470801</v>
+        <v>468740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>539964</v>
+        <v>541775</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.371866265007084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3464446212338467</v>
+        <v>0.3449281834566841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3973390209828068</v>
+        <v>0.3986720547480972</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>415373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>390460</v>
+        <v>388832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>437771</v>
+        <v>437428</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6691936924029558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6290578240885086</v>
+        <v>0.6264346292277918</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.705279199606507</v>
+        <v>0.704727352514402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>409</v>
@@ -5226,19 +5226,19 @@
         <v>438230</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>408813</v>
+        <v>407485</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>465197</v>
+        <v>463291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5936110669393982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5537643783180244</v>
+        <v>0.5519655279504379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6301396617584245</v>
+        <v>0.6275587261885409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>811</v>
@@ -5247,19 +5247,19 @@
         <v>853602</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>818986</v>
+        <v>817175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>888149</v>
+        <v>890210</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.628133734992916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6026609790171931</v>
+        <v>0.6013279452519028</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6535553787661533</v>
+        <v>0.6550718165433159</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>62570</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50021</v>
+        <v>50133</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78627</v>
+        <v>78996</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2179055141915927</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.174202599803067</v>
+        <v>0.1745899872981429</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2738218442223931</v>
+        <v>0.275109782914374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>281</v>
@@ -5372,19 +5372,19 @@
         <v>310712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>280799</v>
+        <v>279212</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>344375</v>
+        <v>341323</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2871579878810015</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2595122014313554</v>
+        <v>0.2580453836154553</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3182690416609904</v>
+        <v>0.3154481486112649</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>336</v>
@@ -5393,19 +5393,19 @@
         <v>373283</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>339536</v>
+        <v>338002</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>405260</v>
+        <v>409908</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2726342167103916</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2479868571273803</v>
+        <v>0.2468661652515741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2959898635111262</v>
+        <v>0.2993841728124208</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>224575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208518</v>
+        <v>208149</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237124</v>
+        <v>237012</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7820944858084073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7261781557776065</v>
+        <v>0.724890217085626</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8257974001969323</v>
+        <v>0.8254100127018571</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>711</v>
@@ -5443,19 +5443,19 @@
         <v>771313</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>737650</v>
+        <v>740702</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>801226</v>
+        <v>802813</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7128420121189986</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6817309583390095</v>
+        <v>0.6845518513887348</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7404877985686446</v>
+        <v>0.7419546163845447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>928</v>
@@ -5464,19 +5464,19 @@
         <v>995887</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>963910</v>
+        <v>959262</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1029634</v>
+        <v>1031168</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7273657832896084</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.704010136488874</v>
+        <v>0.7006158271875792</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7520131428726198</v>
+        <v>0.7531338347484259</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1061559</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1010950</v>
+        <v>1008476</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1119568</v>
+        <v>1113616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3135397786510739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.298592239781758</v>
+        <v>0.2978612897768655</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3306733395091272</v>
+        <v>0.328915367688833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1310</v>
@@ -5589,19 +5589,19 @@
         <v>1367046</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1309123</v>
+        <v>1309912</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1422373</v>
+        <v>1429982</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.387090235218111</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3706887537800051</v>
+        <v>0.3709120734373313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4027564403167294</v>
+        <v>0.4049110762858858</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2320</v>
@@ -5610,19 +5610,19 @@
         <v>2428605</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2343265</v>
+        <v>2349538</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2511651</v>
+        <v>2511263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3510905298391277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3387534716077752</v>
+        <v>0.3396602686829994</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3630960963472636</v>
+        <v>0.3630400331505109</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2324163</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2266154</v>
+        <v>2272106</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2374772</v>
+        <v>2377246</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6864602213489261</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6693266604908726</v>
+        <v>0.671084632311167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7014077602182419</v>
+        <v>0.7021387102231345</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2016</v>
@@ -5660,19 +5660,19 @@
         <v>2164550</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2109223</v>
+        <v>2101614</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2222473</v>
+        <v>2221684</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.612909764781889</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5972435596832706</v>
+        <v>0.5950889237141141</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6293112462199949</v>
+        <v>0.6290879265626687</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4230</v>
@@ -5681,19 +5681,19 @@
         <v>4488713</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4405667</v>
+        <v>4406055</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4574053</v>
+        <v>4567780</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6489094701608723</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6369039036527365</v>
+        <v>0.6369599668494891</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6612465283922274</v>
+        <v>0.6603397313170006</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>60730</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47432</v>
+        <v>47112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81638</v>
+        <v>79776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1102939979105387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08614321645741123</v>
+        <v>0.08556239023853099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1482657422077799</v>
+        <v>0.1448842863615875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -6048,19 +6048,19 @@
         <v>67284</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55623</v>
+        <v>54861</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81716</v>
+        <v>83595</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1377613838640275</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1138850331852253</v>
+        <v>0.1123258197357581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1673099889425752</v>
+        <v>0.1711571796370311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>147</v>
@@ -6069,19 +6069,19 @@
         <v>128014</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109345</v>
+        <v>107734</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>152926</v>
+        <v>151890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1232054453695397</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1052373863865822</v>
+        <v>0.1036873683754755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.14718119922103</v>
+        <v>0.1461850176072448</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>489888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>468980</v>
+        <v>470842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>503186</v>
+        <v>503506</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8897060020894614</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8517342577922202</v>
+        <v>0.8551157136384128</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9138567835425888</v>
+        <v>0.9144376097614689</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>597</v>
@@ -6119,19 +6119,19 @@
         <v>421127</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>406695</v>
+        <v>404816</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>432788</v>
+        <v>433550</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8622386161359726</v>
+        <v>0.8622386161359725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8326900110574249</v>
+        <v>0.8288428203629694</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8861149668147749</v>
+        <v>0.8876741802642419</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1093</v>
@@ -6140,19 +6140,19 @@
         <v>911015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>886103</v>
+        <v>887139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>929684</v>
+        <v>931295</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8767945546304604</v>
+        <v>0.8767945546304602</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8528188007789702</v>
+        <v>0.8538149823927552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8947626136134178</v>
+        <v>0.8963126316245246</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>48719</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36380</v>
+        <v>35686</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63487</v>
+        <v>64967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1008235960908348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07528854600056596</v>
+        <v>0.07385142234208368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1313862595822391</v>
+        <v>0.1344487674768316</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -6265,19 +6265,19 @@
         <v>63135</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51824</v>
+        <v>51926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76520</v>
+        <v>77663</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1492043765550007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1224743179448562</v>
+        <v>0.1227145978887285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1808377544311402</v>
+        <v>0.1835383449836705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -6286,19 +6286,19 @@
         <v>111854</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95172</v>
+        <v>95082</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132747</v>
+        <v>134225</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1234107517933049</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1050055502499611</v>
+        <v>0.1049054658294976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1464630098777644</v>
+        <v>0.148093086242667</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>434493</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419725</v>
+        <v>418245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>446832</v>
+        <v>447526</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8991764039091653</v>
+        <v>0.8991764039091652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8686137404177608</v>
+        <v>0.8655512325231683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.924711453999434</v>
+        <v>0.9261485776579164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>504</v>
@@ -6336,19 +6336,19 @@
         <v>360008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>346623</v>
+        <v>345480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371319</v>
+        <v>371217</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8507956234449991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8191622455688596</v>
+        <v>0.8164616550163295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8775256820551437</v>
+        <v>0.8772854021112715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -6357,19 +6357,19 @@
         <v>794501</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>773608</v>
+        <v>772130</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>811183</v>
+        <v>811273</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8765892482066951</v>
+        <v>0.8765892482066953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8535369901222356</v>
+        <v>0.8519069137573329</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8949944497500391</v>
+        <v>0.8950945341705024</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>81332</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65227</v>
+        <v>66042</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99426</v>
+        <v>98911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1724551877287096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1383059498591257</v>
+        <v>0.1400356347670923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2108224593949906</v>
+        <v>0.2097292161231358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -6482,19 +6482,19 @@
         <v>24205</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17671</v>
+        <v>17492</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32358</v>
+        <v>32046</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1290931694938032</v>
+        <v>0.1290931694938031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09424813769150832</v>
+        <v>0.09329078892387586</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1725803327003469</v>
+        <v>0.1709155683792271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -6503,19 +6503,19 @@
         <v>105537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86230</v>
+        <v>88107</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123680</v>
+        <v>125544</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1601199583673154</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.130827417535824</v>
+        <v>0.1336765715661632</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1876479121610493</v>
+        <v>0.1904755383711645</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>390280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>372186</v>
+        <v>372701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>406385</v>
+        <v>405570</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8275448122712904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7891775406050093</v>
+        <v>0.7902707838768642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8616940501408742</v>
+        <v>0.8599643652329076</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>250</v>
@@ -6553,19 +6553,19 @@
         <v>163292</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155139</v>
+        <v>155451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169826</v>
+        <v>170005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8709068305061968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8274196672996532</v>
+        <v>0.8290844316207731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9057518623084916</v>
+        <v>0.9067092110761242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>658</v>
@@ -6574,19 +6574,19 @@
         <v>553572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>535429</v>
+        <v>533565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572879</v>
+        <v>571002</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8398800416326847</v>
+        <v>0.8398800416326846</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8123520878389504</v>
+        <v>0.8095244616288356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8691725824641759</v>
+        <v>0.8663234284338368</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>181349</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156490</v>
+        <v>155378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207876</v>
+        <v>207298</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1602247618567994</v>
+        <v>0.1602247618567993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1382616027558509</v>
+        <v>0.1372783499112554</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.183661851954041</v>
+        <v>0.1831512722589193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -6699,19 +6699,19 @@
         <v>135029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118620</v>
+        <v>117998</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156734</v>
+        <v>154911</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1567902437626987</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1377358221433824</v>
+        <v>0.1370142006536794</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1819928559314061</v>
+        <v>0.1798758389874231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>369</v>
@@ -6720,19 +6720,19 @@
         <v>316379</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>285868</v>
+        <v>285275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349417</v>
+        <v>352805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1587406847065369</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1434319506764004</v>
+        <v>0.1431346403838259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1753173672534194</v>
+        <v>0.1770172207495567</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>950494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>923967</v>
+        <v>924545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>975353</v>
+        <v>976465</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8397752381432007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8163381480459593</v>
+        <v>0.8168487277410803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.861738397244149</v>
+        <v>0.8627216500887445</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1047</v>
@@ -6770,19 +6770,19 @@
         <v>726182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>704477</v>
+        <v>706300</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>742591</v>
+        <v>743213</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8432097562373013</v>
+        <v>0.8432097562373014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8180071440685933</v>
+        <v>0.820124161012577</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8622641778566175</v>
+        <v>0.8629857993463207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1979</v>
@@ -6791,19 +6791,19 @@
         <v>1676675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1643637</v>
+        <v>1640249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1707186</v>
+        <v>1707779</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.841259315293463</v>
+        <v>0.8412593152934632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8246826327465807</v>
+        <v>0.8229827792504433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8565680493235995</v>
+        <v>0.8568653596161743</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>68502</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53679</v>
+        <v>54273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84509</v>
+        <v>86589</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1206096960387305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09451139836952124</v>
+        <v>0.09555683085651781</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1487930551682364</v>
+        <v>0.1524548490336164</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>271</v>
@@ -6916,19 +6916,19 @@
         <v>178341</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>159694</v>
+        <v>158663</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196736</v>
+        <v>200346</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2146488780231479</v>
+        <v>0.2146488780231478</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1922051922947612</v>
+        <v>0.1909651348471398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.236789006021457</v>
+        <v>0.2411340905440153</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>345</v>
@@ -6937,19 +6937,19 @@
         <v>246843</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>222271</v>
+        <v>222085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>276105</v>
+        <v>273623</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1764659269773179</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1588993904113943</v>
+        <v>0.1587668363945123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1973850147508107</v>
+        <v>0.1956107033520914</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>499462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>483455</v>
+        <v>481375</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>514285</v>
+        <v>513691</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8793903039612695</v>
+        <v>0.8793903039612693</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.851206944831764</v>
+        <v>0.8475451509663835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9054886016304788</v>
+        <v>0.9044431691434821</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1019</v>
@@ -6987,19 +6987,19 @@
         <v>652509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>634114</v>
+        <v>630504</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>671156</v>
+        <v>672187</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7853511219768521</v>
+        <v>0.7853511219768524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7632109939785429</v>
+        <v>0.758865909455985</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8077948077052389</v>
+        <v>0.80903486515286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1492</v>
@@ -7008,19 +7008,19 @@
         <v>1151971</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1122709</v>
+        <v>1125191</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1176543</v>
+        <v>1176729</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8235340730226821</v>
+        <v>0.823534073022682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8026149852491894</v>
+        <v>0.8043892966479086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8411006095886057</v>
+        <v>0.8412331636054878</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>22517</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11926</v>
+        <v>11768</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39450</v>
+        <v>39311</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09491733690025819</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05027020656189923</v>
+        <v>0.04960675061727717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1662953051987335</v>
+        <v>0.1657092942558957</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>277</v>
@@ -7133,19 +7133,19 @@
         <v>191707</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>171920</v>
+        <v>170484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>217268</v>
+        <v>214218</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2270658428435673</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2036293450429994</v>
+        <v>0.201927659764098</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2573413107823654</v>
+        <v>0.2537282626620711</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>291</v>
@@ -7154,19 +7154,19 @@
         <v>214224</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190704</v>
+        <v>190049</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>244527</v>
+        <v>241079</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1980792138634024</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1763310321222874</v>
+        <v>0.1757260481842527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2260976449738337</v>
+        <v>0.2229094180807676</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>214711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197778</v>
+        <v>197917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225302</v>
+        <v>225460</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9050826630997417</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8337046948012664</v>
+        <v>0.8342907057441046</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9497297934381006</v>
+        <v>0.950393249382723</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>882</v>
@@ -7204,19 +7204,19 @@
         <v>652574</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>627013</v>
+        <v>630063</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>672361</v>
+        <v>673797</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7729341571564327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7426586892176347</v>
+        <v>0.7462717373379288</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7963706549570004</v>
+        <v>0.7980723402359019</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>980</v>
@@ -7225,19 +7225,19 @@
         <v>867285</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>836982</v>
+        <v>840430</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>890805</v>
+        <v>891460</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8019207861365977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7739023550261663</v>
+        <v>0.7770905819192324</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8236689678777126</v>
+        <v>0.8242739518157473</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>463149</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>422732</v>
+        <v>424352</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>508112</v>
+        <v>509543</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1345395341396423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1227989130859864</v>
+        <v>0.1232694288817512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1476007495367537</v>
+        <v>0.1480164335658629</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>945</v>
@@ -7350,19 +7350,19 @@
         <v>659701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>619947</v>
+        <v>621353</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>701750</v>
+        <v>701433</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1814663260719611</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1705308894890865</v>
+        <v>0.1709176824601806</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1930327225132074</v>
+        <v>0.1929456759111683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1403</v>
@@ -7371,19 +7371,19 @@
         <v>1122851</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1063931</v>
+        <v>1063740</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1188016</v>
+        <v>1178523</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1586424576475973</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1503180520861564</v>
+        <v>0.1502910363076918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1678494237296543</v>
+        <v>0.1665082358855242</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2979327</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2934364</v>
+        <v>2932933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3019744</v>
+        <v>3018124</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8654604658603577</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8523992504632468</v>
+        <v>0.8519835664341372</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8772010869140137</v>
+        <v>0.8767305711182487</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4299</v>
@@ -7421,19 +7421,19 @@
         <v>2975692</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2933643</v>
+        <v>2933960</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3015446</v>
+        <v>3014040</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8185336739280389</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8069672774867929</v>
+        <v>0.8070543240888314</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8294691105109137</v>
+        <v>0.8290823175398191</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7141</v>
@@ -7442,19 +7442,19 @@
         <v>5955018</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5889853</v>
+        <v>5899346</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6013938</v>
+        <v>6014129</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8413575423524027</v>
+        <v>0.8413575423524026</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8321505762703458</v>
+        <v>0.8334917641144758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8496819479138434</v>
+        <v>0.8497089636923083</v>
       </c>
     </row>
     <row r="24">
